--- a/pred_ohlcv/54_21/2020-01-12 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 BCH ohlcv.xlsx
@@ -2004,7 +2004,7 @@
         <v>1746.21575039</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1768.94945039</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1763.46055039</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1800.40215039</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1796.34255039</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1802.83675039</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1811.03785039</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1810.74555039</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1809.44445039</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1809.44445039</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1812.92835039</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1869.45545039</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1970.00025039</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1826.13205039</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1926.38175039</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1849.88735039</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1841.07755039</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1842.89135039</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1922.31265039</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1922.85445039</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1907.86365039</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>2019.20975039</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2055.11805093</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>2049.35265093</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2025.28535093</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2029.04935093</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1951.09745093</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>1951.09745093</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>2045.9395574</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1991.1590574</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1991.1590574</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1962.2890574</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1965.7890574</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1969.7890574</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1970.0390574</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1956.1069574</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1967.8439574</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1967.8340574</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1967.8340574</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1967.8340574</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>2017.9547574</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>2017.9547574</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>2035.3204574</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>2048.4116574</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>1982.08755058</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>1932.25395058</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>1932.36125058</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>1931.86125058</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>1945.60635058</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>1947.10635058</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1968.40605058</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1965.47415058</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>1954.20985058</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1953.70985058</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>1954.33685058</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>1979.24265058</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1969.56635058</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1964.03045058</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>1982.11615058</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1983.25995058</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>1981.91005058</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>1982.75095058</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1981.90095058</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>1984.28025058</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>1984.75585058</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>1984.75585058</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>1984.75585058</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>1985.73995058</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>1985.73995058</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>1982.06755058</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>2048.25985058</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>2001.12935058</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>2043.31955058</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>2044.27255058</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>2049.72955058</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>2046.52535058</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1718.64645058</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>2544.920303960001</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>2399.857197380001</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>2524.375597380001</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>2565.015097380001</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>2621.434873510001</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>2741.954573510001</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>2826.095486310001</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>2924.511173510001</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>3141.559973510001</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>3041.748373510001</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>3132.326873510001</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>3219.262873510001</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>3160.106573510001</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>3182.624472140001</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>3135.692272140001</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>3101.237272140001</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>3115.701072140001</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>3151.549972140001</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>3129.341776000001</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>3008.505176000001</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>2890.401376000001</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>2836.420976000001</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>2736.936776000001</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>2611.765276000001</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>2588.800576000001</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>2669.023559860002</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>2740.363500650002</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>2807.060374410002</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>2763.984429770001</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>2786.471685130001</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>2789.854385130001</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>2770.638685130001</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>2749.039584000001</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>2742.056784000001</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>2849.086484000001</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>2874.695984000001</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>2876.357384000001</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>2911.145184000001</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>2932.335937770001</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>3025.357137770001</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>3080.972837770001</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>3106.475837770001</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>3106.475837770001</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>3763.445709580002</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>3810.878009580002</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>3747.445609580002</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>3709.046112760002</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>3590.134572180002</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>3494.671272180002</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>3546.734972180002</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>3535.500472180002</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>3564.230272180002</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>3540.774972180002</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>3512.166172180002</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>3532.007764510002</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>3495.437652500003</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>3389.783052500003</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>3391.683052500003</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>3417.545452500003</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>3409.040552500003</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>3409.040552500003</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>3419.136652500003</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>3419.136652500003</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>3404.274593530003</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>3406.697693530003</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>3390.557793530003</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>3371.159193530003</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>3355.708793530003</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>3355.708793530003</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>3350.277693530003</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>3290.420593530003</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>3427.789093530003</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>3412.087693530003</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>3332.602493530003</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>3562.295593530003</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>3562.295593530003</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>3479.262793530003</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>3484.762793530003</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>3416.087893530003</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>2741.960897559999</v>
       </c>
       <c r="H1109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>2742.532398539999</v>
       </c>
       <c r="H1110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>2723.682598539999</v>
       </c>
       <c r="H1111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>2722.882598539999</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>2727.073198539998</v>
       </c>
       <c r="H1113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>2723.576998539998</v>
       </c>
       <c r="H1114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>2713.188298539998</v>
       </c>
       <c r="H1115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>2703.253398539998</v>
       </c>
       <c r="H1116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>2705.455198539998</v>
       </c>
       <c r="H1117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>2795.725322369998</v>
       </c>
       <c r="H1118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>2793.725322369998</v>
       </c>
       <c r="H1119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>2786.978422369998</v>
       </c>
       <c r="H1120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>2849.264196629998</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>2818.516996629998</v>
       </c>
       <c r="H1134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>2843.398396629998</v>
       </c>
       <c r="H1135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>2842.370896629998</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>2844.011196629998</v>
       </c>
       <c r="H1137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>2812.403397679998</v>
       </c>
       <c r="H1138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>2822.578397679998</v>
       </c>
       <c r="H1139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-12 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 BCH ohlcv.xlsx
@@ -2004,7 +2004,7 @@
         <v>1746.21575039</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1768.94945039</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1763.46055039</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1800.40215039</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1796.34255039</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1802.83675039</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1811.03785039</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1810.74555039</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1809.44445039</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1809.44445039</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1812.92835039</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1869.45545039</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1970.00025039</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1826.13205039</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1926.38175039</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1849.88735039</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1841.07755039</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1842.89135039</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1922.31265039</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1922.85445039</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1907.86365039</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1910.09835039</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1911.50405039</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1909.50405039</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1909.50405039</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1986.31785039</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>2019.20975039</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2055.11805093</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>2049.35265093</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2025.28535093</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2029.04935093</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1951.09745093</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>1951.09745093</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1954.40065093</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>1943.08525093</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>2151.70595093</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>2185.42915093</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1991.1590574</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1991.1590574</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1962.2890574</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1965.7890574</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1969.7890574</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1970.0390574</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1956.1069574</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1967.8439574</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1967.8340574</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1967.8340574</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1967.8340574</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>2017.9547574</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>2017.9547574</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>2035.3204574</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>2048.4116574</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>1982.08755058</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>1932.25395058</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>1932.36125058</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>1931.86125058</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>1945.60635058</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>1947.10635058</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1968.40605058</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1965.47415058</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>1954.20985058</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1953.70985058</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>1954.33685058</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>1979.24265058</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1969.56635058</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1964.03045058</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1975.74475058</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1976.24475058</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1975.81445058</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1975.81445058</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1981.90095058</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>1984.75585058</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>1984.75585058</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>1985.73995058</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>1985.73995058</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>1982.06755058</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>2048.25985058</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>2001.12935058</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>2043.31955058</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>2044.27255058</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>2049.72955058</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>2046.52535058</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1718.64645058</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>2544.920303960001</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>2399.857197380001</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>2524.375597380001</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>2565.015097380001</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>2621.434873510001</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>2741.954573510001</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>2826.095486310001</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>2924.511173510001</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>3141.559973510001</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>3041.748373510001</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>3132.326873510001</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>3219.262873510001</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>3160.106573510001</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>3182.624472140001</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>3135.692272140001</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>3101.237272140001</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>3115.701072140001</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>3151.549972140001</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>3129.341776000001</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>3008.505176000001</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>2890.401376000001</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>2836.420976000001</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>2736.936776000001</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>2611.765276000001</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>2588.800576000001</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>2669.023559860002</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>2740.363500650002</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>2807.060374410002</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>2763.984429770001</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>2786.471685130001</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>2789.854385130001</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>2770.638685130001</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>2749.039584000001</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>2742.056784000001</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>2849.086484000001</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>2874.695984000001</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>2876.357384000001</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>2911.145184000001</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>2932.335937770001</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>3025.357137770001</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>3080.972837770001</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>3106.475837770001</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>3106.475837770001</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>3866.973309580002</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>3890.537609580002</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>3763.445709580002</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>3810.878009580002</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>3747.445609580002</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>3709.046112760002</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>3590.134572180002</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>3494.671272180002</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>3546.734972180002</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>3535.500472180002</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>3564.230272180002</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>3540.774972180002</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>3512.166172180002</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>3532.007764510002</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>3495.437652500003</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>3389.783052500003</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>3391.683052500003</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>3417.545452500003</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>3409.040552500003</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>3409.040552500003</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>3419.136652500003</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>3419.136652500003</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>3404.274593530003</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>3406.697693530003</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>3390.557793530003</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>3371.159193530003</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>3355.708793530003</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>3355.708793530003</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>3350.277693530003</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>3290.420593530003</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>3427.789093530003</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>3412.087693530003</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>3332.602493530003</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>3520.824993530003</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>3562.295593530003</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>3562.295593530003</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>3479.262793530003</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>2741.960897559999</v>
       </c>
       <c r="H1109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>2742.532398539999</v>
       </c>
       <c r="H1110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>2723.682598539999</v>
       </c>
       <c r="H1111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>2722.882598539999</v>
       </c>
       <c r="H1112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>2727.073198539998</v>
       </c>
       <c r="H1113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>2723.576998539998</v>
       </c>
       <c r="H1114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>2713.188298539998</v>
       </c>
       <c r="H1115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>2703.253398539998</v>
       </c>
       <c r="H1116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>2705.455198539998</v>
       </c>
       <c r="H1117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>2795.725322369998</v>
       </c>
       <c r="H1118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>2793.725322369998</v>
       </c>
       <c r="H1119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>2786.978422369998</v>
       </c>
       <c r="H1120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>2849.264196629998</v>
       </c>
       <c r="H1133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>2818.516996629998</v>
       </c>
       <c r="H1134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>2843.398396629998</v>
       </c>
       <c r="H1135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>2842.370896629998</v>
       </c>
       <c r="H1136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>2844.011196629998</v>
       </c>
       <c r="H1137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>2812.403397679998</v>
       </c>
       <c r="H1138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>2822.578397679998</v>
       </c>
       <c r="H1139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
